--- a/data/trans_orig/P1435_2011_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Habitat-trans_orig.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,576 +874,652 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>674</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>703469</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>703469</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>703469</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>697050</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>697050</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>697050</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1324</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>1400519</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>1400519</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>1400519</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>935</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1016887</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1011972</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1017947</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.9989591766372429</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9941304960234296</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>988542</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>974605</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1000200</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.9577188711423356</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.9442162501948321</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.9690137089067475</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1835</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>2005430</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>1989126</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>2018050</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0.9781958298456687</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0.9702432109070445</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0.9843517128669688</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="F8" s="5" t="n">
+        <v>5975</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.001040823362757139</v>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr"/>
-      <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="inlineStr"/>
-      <c r="W6" s="6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>674</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>703469</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>703469</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>703469</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>650</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>697050</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>697050</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>697050</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1324</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1400519</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1400519</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1400519</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>935</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1016887</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>1011972</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>1017947</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.9989591766372429</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.9941304960234296</v>
-      </c>
       <c r="I8" s="6" t="n">
-        <v>1</v>
+        <v>0.005869503976571103</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>988542</v>
+        <v>43642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>974605</v>
+        <v>31984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1000200</v>
+        <v>57579</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9577188711423356</v>
+        <v>0.04228112885766447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9442162501948321</v>
+        <v>0.03098629109325253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9690137089067475</v>
+        <v>0.05578374980516784</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>1835</v>
+        <v>41</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>2005430</v>
+        <v>44701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1989126</v>
+        <v>32081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2018050</v>
+        <v>61005</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9781958298456687</v>
+        <v>0.02180417015433137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9702432109070445</v>
+        <v>0.01564828713303112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843517128669688</v>
+        <v>0.02975678909295545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1</v>
+        <v>936</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1060</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>1017947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5975</v>
+        <v>1017947</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.001040823362757139</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005869503976571103</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>40</v>
+        <v>940</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>43642</v>
+        <v>1032184</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31984</v>
+        <v>1032184</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>57579</v>
+        <v>1032184</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04228112885766447</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03098629109325253</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05578374980516784</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>41</v>
+        <v>1876</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>44701</v>
+        <v>2050131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32081</v>
+        <v>2050131</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61005</v>
+        <v>2050131</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02180417015433137</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01564828713303112</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02975678909295545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+        <v>753626</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>747633</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>756585</v>
+      </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
+        <v>0.9947240289858238</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.9868135837937595</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.998629747622355</v>
+      </c>
       <c r="J10" s="5" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+        <v>749655</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>736563</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>758676</v>
+      </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" s="6" t="inlineStr"/>
+        <v>0.9645910222609692</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0.9477454284726424</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.9761986164636545</v>
+      </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
+        <v>1503281</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>1489494</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>1512951</v>
+      </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
+        <v>0.9794656041480676</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0.9704825073676548</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0.9857661389715275</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3997</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1038</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>9990</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.005275971014176194</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.001370252377644967</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01318641620624042</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>27519</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>18498</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>40611</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.03540897773903084</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.02380138353634548</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.05225457152735742</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>31516</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>21846</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>45303</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.02053439585193241</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.01423386102847248</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.02951749263234516</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>936</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1017947</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1017947</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1017947</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>940</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1032184</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1032184</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1032184</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1876</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2050131</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2050131</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2050131</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000 hab</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>689</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>757623</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>757623</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>757623</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>705</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>777174</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>777174</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>777174</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1394</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>1534797</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>1534797</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1534797</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>685</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>753626</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>747633</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>756585</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.9947240289858238</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.9868135837937595</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.998629747622355</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>680</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>749655</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>736563</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>758676</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.9645910222609692</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.9477454284726424</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.9761986164636545</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>1365</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>1503281</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>1489494</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>1512951</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.9794656041480676</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.9704825073676548</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.9857661389715275</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>4</v>
+        <v>906</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3997</v>
+        <v>943881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1038</v>
+        <v>938175</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9990</v>
+        <v>946767</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005275971014176194</v>
+        <v>0.995929308585053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001370252377644967</v>
+        <v>0.9899082527488494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01318641620624042</v>
+        <v>0.9989741746203938</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>25</v>
+        <v>971</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>27519</v>
+        <v>1017989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18498</v>
+        <v>1004853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40611</v>
+        <v>1028436</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03540897773903084</v>
+        <v>0.967761696741232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02380138353634548</v>
+        <v>0.9552735177278355</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05225457152735742</v>
+        <v>0.9776927229825055</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>29</v>
+        <v>1877</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>31516</v>
+        <v>1961871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21846</v>
+        <v>1947753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45303</v>
+        <v>1973032</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02053439585193241</v>
+        <v>0.9811118746144047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01423386102847248</v>
+        <v>0.9740519318764811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02951749263234516</v>
+        <v>0.9866936044416025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+        <v>3858</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>972</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9564</v>
+      </c>
       <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
+        <v>0.004070691414946946</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.001025825379606131</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.01009174725115062</v>
+      </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+        <v>33912</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>23465</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>47048</v>
+      </c>
       <c r="N14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
+        <v>0.03223830325876793</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.02230727701749464</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.04472648227216446</v>
+      </c>
       <c r="Q14" s="5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
+        <v>37769</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>26608</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>51887</v>
+      </c>
       <c r="U14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="inlineStr"/>
-      <c r="W14" s="6" t="inlineStr"/>
+        <v>0.01888812538559522</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01330639555839752</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.02594806812351889</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1453,16 +1529,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -1474,16 +1550,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -1495,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -1519,7 +1595,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1528,67 +1604,67 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>906</v>
+        <v>3198</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>943881</v>
+        <v>3415765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>938175</v>
+        <v>3407825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>946767</v>
+        <v>3421668</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.995929308585053</v>
+        <v>0.9967858086469044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9899082527488494</v>
+        <v>0.9944687901281295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9989741746203938</v>
+        <v>0.9985084217263602</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>971</v>
+        <v>3182</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1017989</v>
+        <v>3431556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1004853</v>
+        <v>3404836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1028436</v>
+        <v>3450444</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.967761696741232</v>
+        <v>0.9643783931072394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9552735177278355</v>
+        <v>0.9568691022667432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9776927229825055</v>
+        <v>0.9696864858975643</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>1877</v>
+        <v>6380</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>1961871</v>
+        <v>6847321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1947753</v>
+        <v>6823143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1973032</v>
+        <v>6870935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9811118746144047</v>
+        <v>0.980276982688427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9740519318764811</v>
+        <v>0.9768155592986175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9866936044416025</v>
+        <v>0.9836576211365268</v>
       </c>
     </row>
     <row r="17">
@@ -1599,453 +1675,142 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3858</v>
+        <v>11014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>972</v>
+        <v>5111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9564</v>
+        <v>18954</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.004070691414946946</v>
+        <v>0.003214191353095675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001025825379606131</v>
+        <v>0.001491578273639765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01009174725115062</v>
+        <v>0.005531209871870509</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>33912</v>
+        <v>126753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23465</v>
+        <v>107865</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47048</v>
+        <v>153473</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03223830325876793</v>
+        <v>0.0356216068927606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02230727701749464</v>
+        <v>0.03031351410243513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04472648227216446</v>
+        <v>0.0431308977332567</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>37769</v>
+        <v>137767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26608</v>
+        <v>114153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51887</v>
+        <v>161945</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01888812538559522</v>
+        <v>0.01972301731157295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01330639555839752</v>
+        <v>0.01634237886347341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02594806812351889</v>
+        <v>0.02318444070138259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
+        <v>3426779</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3426779</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>3426779</v>
+      </c>
       <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="5" t="n">
-        <v>0</v>
+        <v>3298</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
+        <v>3558309</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>3558309</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>3558309</v>
+      </c>
       <c r="N18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" s="5" t="n">
-        <v>0</v>
+        <v>6507</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
+        <v>6985088</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>6985088</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>6985088</v>
+      </c>
       <c r="U18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6" t="inlineStr"/>
-      <c r="W18" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>910</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>947739</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>947739</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>947739</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>1051901</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>1051901</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>1051901</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>1913</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1999640</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1999640</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1999640</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>3198</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>3415765</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>3407825</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>3421668</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.9967858086469044</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.9944687901281295</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.9985084217263602</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>3182</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>3431556</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>3404836</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>3450444</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.9643783931072394</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.9568691022667432</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.9696864858975643</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>6380</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>6847321</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>6823143</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>6870935</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.980276982688427</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.9768155592986175</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.9836576211365268</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>18954</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.003214191353095675</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.001491578273639765</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.005531209871870509</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>126753</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>107865</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>153473</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.0356216068927606</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.03031351410243513</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.0431308977332567</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>137767</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>114153</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>161945</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.01972301731157295</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.01634237886347341</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.02318444070138259</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="inlineStr"/>
-      <c r="P22" s="6" t="inlineStr"/>
-      <c r="Q22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6" t="inlineStr"/>
-      <c r="W22" s="6" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3426779</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>3298</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3558309</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>6507</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>6985088</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2054,14 +1819,14 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2073,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2296,44 +2061,68 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+        <v>680766</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>673724</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>685515</v>
+      </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
+        <v>0.9856034253819825</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9754074850287329</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9924794487492802</v>
+      </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+        <v>673380</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>660800</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>685378</v>
+      </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
+        <v>0.9190120711012042</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.9018426717214902</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.9353860777921701</v>
+      </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr"/>
+        <v>1354146</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>1338770</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1366329</v>
+      </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="inlineStr"/>
-      <c r="W4" s="6" t="inlineStr"/>
+        <v>0.9513250340220675</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.9405233503179379</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.9598845541561211</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2410,599 +2199,651 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>680766</v>
+        <v>690710</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>673724</v>
+        <v>690710</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>685515</v>
+        <v>690710</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9856034253819825</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9754074850287329</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9924794487492802</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1134</v>
+        <v>1238</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>673380</v>
+        <v>732722</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>660800</v>
+        <v>732722</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>685378</v>
+        <v>732722</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9190120711012042</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9018426717214902</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9353860777921701</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>1851</v>
+        <v>1968</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>1354146</v>
+        <v>1423431</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1338770</v>
+        <v>1423431</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1366329</v>
+        <v>1423431</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9513250340220675</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9405233503179379</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9598845541561211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>730</v>
+        <v>946</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>690710</v>
+        <v>1031687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>690710</v>
+        <v>1021449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>690710</v>
+        <v>1039050</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9835734512252029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9738130318369524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9905936145338415</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1238</v>
+        <v>1367</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>732722</v>
+        <v>975306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>732722</v>
+        <v>958833</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>732722</v>
+        <v>990364</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9116643444864332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.8962662625586444</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9257401926559555</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>1968</v>
+        <v>2313</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>1423431</v>
+        <v>2006993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1423431</v>
+        <v>1987977</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1423431</v>
+        <v>2023635</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9472643789689374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.9382894032673674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.955119131106173</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+        <v>17230</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>9867</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>27468</v>
+      </c>
       <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>0.01642654877479727</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.009406385466158337</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02618696816304745</v>
+      </c>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+        <v>94502</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>79444</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>110975</v>
+      </c>
       <c r="N8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="6" t="inlineStr"/>
+        <v>0.08833565551356676</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.07425980734404457</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.1037337374413555</v>
+      </c>
       <c r="Q8" s="5" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr"/>
-      <c r="T8" s="5" t="inlineStr"/>
+        <v>111732</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>95090</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>130748</v>
+      </c>
       <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="inlineStr"/>
-      <c r="W8" s="6" t="inlineStr"/>
+        <v>0.05273562103106259</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.04488086889382713</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.0617105967326327</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18</v>
+        <v>964</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17230</v>
+        <v>1048917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9867</v>
+        <v>1048917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27468</v>
+        <v>1048917</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01642654877479727</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009406385466158337</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02618696816304745</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>147</v>
+        <v>1514</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>94502</v>
+        <v>1069808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79444</v>
+        <v>1069808</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110975</v>
+        <v>1069808</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08833565551356676</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07425980734404457</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1037337374413555</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>165</v>
+        <v>2478</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>111732</v>
+        <v>2118725</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95090</v>
+        <v>2118725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>130748</v>
+        <v>2118725</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05273562103106259</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04488086889382713</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0617105967326327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
+        <v>667</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>793829</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>786556</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>797939</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.9907789578274189</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.9817019390003378</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9959093374249135</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>946</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>1031687</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>1021449</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1039050</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.9835734512252029</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.9738130318369524</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.9905936145338415</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>1367</v>
-      </c>
       <c r="K10" s="5" t="n">
-        <v>975306</v>
+        <v>738568</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>958833</v>
+        <v>722997</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>990364</v>
+        <v>753120</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9116643444864332</v>
+        <v>0.9116495072907481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8962662625586444</v>
+        <v>0.8924292187682293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9257401926559555</v>
+        <v>0.929611475570292</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>2313</v>
+        <v>1613</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>2006993</v>
+        <v>1532397</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1987977</v>
+        <v>1515864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2023635</v>
+        <v>1546902</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9472643789689374</v>
+        <v>0.9509950295328247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9382894032673674</v>
+        <v>0.9407345238296496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.955119131106173</v>
+        <v>0.9599968564414132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7388</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3278</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>14661</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.009221042172581</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.004090662575086474</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01829806099966213</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>71577</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>57025</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>87148</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.0883504927092519</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.07038852442970821</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1075707812317708</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>78965</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>64460</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>95498</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.0490049704671754</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.04000314355858674</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.05926547617035035</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>964</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1048917</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1514</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1069808</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1069808</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1069808</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>2478</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2118725</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2118725</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2118725</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000 hab</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>674</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>801217</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>801217</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>801217</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1044</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>810145</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>810145</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>810145</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1718</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>1611362</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>1611362</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1611362</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" s="6" t="inlineStr"/>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="inlineStr"/>
-      <c r="W12" s="6" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>7</v>
+        <v>981</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7388</v>
+        <v>963952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3278</v>
+        <v>950259</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14661</v>
+        <v>973331</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.009221042172581</v>
+        <v>0.9747087298751607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004090662575086474</v>
+        <v>0.960862722847402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01829806099966213</v>
+        <v>0.9841929872796483</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>98</v>
+        <v>1397</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>71577</v>
+        <v>1007802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57025</v>
+        <v>989519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87148</v>
+        <v>1023006</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0883504927092519</v>
+        <v>0.9029505876286562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07038852442970821</v>
+        <v>0.8865696585136909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1075707812317708</v>
+        <v>0.9165727022156583</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>105</v>
+        <v>2378</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>78965</v>
+        <v>1971755</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64460</v>
+        <v>1949895</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95498</v>
+        <v>1991498</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0490049704671754</v>
+        <v>0.9366623990382069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04000314355858674</v>
+        <v>0.9262782082419577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05926547617035035</v>
+        <v>0.9460412052610516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>667</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>793829</v>
+        <v>25012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>786556</v>
+        <v>15633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>797939</v>
+        <v>38705</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9907789578274189</v>
+        <v>0.0252912701248394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9817019390003378</v>
+        <v>0.01580701272035167</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9959093374249135</v>
+        <v>0.03913727715259805</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>946</v>
+        <v>161</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>738568</v>
+        <v>108319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>722997</v>
+        <v>93115</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>753120</v>
+        <v>126602</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9116495072907481</v>
+        <v>0.09704941237134397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8924292187682293</v>
+        <v>0.08342729778434163</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.929611475570292</v>
+        <v>0.1134303414863091</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>1613</v>
+        <v>185</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>1532397</v>
+        <v>133331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1515864</v>
+        <v>113588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1546902</v>
+        <v>155191</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9509950295328247</v>
+        <v>0.06333760096179317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9407345238296496</v>
+        <v>0.05395879473894848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9599968564414132</v>
+        <v>0.07372179175804244</v>
       </c>
     </row>
     <row r="15">
@@ -3013,16 +2854,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>674</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>801217</v>
+        <v>988964</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>801217</v>
+        <v>988964</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>801217</v>
+        <v>988964</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -3034,16 +2875,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1044</v>
+        <v>1558</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>810145</v>
+        <v>1116121</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>810145</v>
+        <v>1116121</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>810145</v>
+        <v>1116121</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -3055,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1718</v>
+        <v>2563</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>1611362</v>
+        <v>2105086</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1611362</v>
+        <v>2105086</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1611362</v>
+        <v>2105086</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -3079,7 +2920,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -3088,44 +2929,68 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>3311</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
+        <v>3470234</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3451242</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3483641</v>
+      </c>
       <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="inlineStr"/>
-      <c r="I16" s="6" t="inlineStr"/>
+        <v>0.9831225498896781</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.9777422402798055</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.9869208933519537</v>
+      </c>
       <c r="J16" s="5" t="n">
-        <v>0</v>
+        <v>4844</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
+        <v>3395057</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>3360947</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>3421609</v>
+      </c>
       <c r="N16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="inlineStr"/>
-      <c r="P16" s="6" t="inlineStr"/>
+        <v>0.9104967318640419</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.9013491632146399</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.917617580266342</v>
+      </c>
       <c r="Q16" s="5" t="n">
-        <v>0</v>
+        <v>8155</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="5" t="inlineStr"/>
+        <v>6865290</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>6827562</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>6899276</v>
+      </c>
       <c r="U16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6" t="inlineStr"/>
-      <c r="W16" s="6" t="inlineStr"/>
+        <v>0.94581415764254</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.9406164512081905</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.9504962021620234</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -3135,477 +3000,142 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>25012</v>
+        <v>59574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15633</v>
+        <v>46167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38705</v>
+        <v>78566</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0252912701248394</v>
+        <v>0.01687745011032194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01580701272035167</v>
+        <v>0.01307910664804666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03913727715259805</v>
+        <v>0.02225775972019574</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>108319</v>
+        <v>333739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93115</v>
+        <v>307187</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126602</v>
+        <v>367849</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09704941237134397</v>
+        <v>0.08950326813595813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08342729778434163</v>
+        <v>0.08238241973365806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1134303414863091</v>
+        <v>0.0986508367853601</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>185</v>
+        <v>572</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>133331</v>
+        <v>393314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113588</v>
+        <v>359328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155191</v>
+        <v>431042</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06333760096179317</v>
+        <v>0.05418584235746003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05395879473894848</v>
+        <v>0.04950379783797668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07372179175804244</v>
+        <v>0.05938354879180969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>981</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>963952</v>
+        <v>3529808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>950259</v>
+        <v>3529808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>973331</v>
+        <v>3529808</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9747087298751607</v>
+        <v>1</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.960862722847402</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9841929872796483</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1397</v>
+        <v>5354</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1007802</v>
+        <v>3728796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>989519</v>
+        <v>3728796</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1023006</v>
+        <v>3728796</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9029505876286562</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8865696585136909</v>
+        <v>1</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9165727022156583</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>2378</v>
+        <v>8727</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>1971755</v>
+        <v>7258604</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1949895</v>
+        <v>7258604</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1991498</v>
+        <v>7258604</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9366623990382069</v>
+        <v>1</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9262782082419577</v>
+        <v>1</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9460412052610516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>988964</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>988964</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>988964</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1558</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>1116121</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>1116121</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>1116121</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2563</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>2105086</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>2105086</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>2105086</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="inlineStr"/>
-      <c r="P20" s="6" t="inlineStr"/>
-      <c r="Q20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6" t="inlineStr"/>
-      <c r="W20" s="6" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>59574</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>46167</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>78566</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.01687745011032194</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.01307910664804666</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.02225775972019574</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>510</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>333739</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>307187</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>367849</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.08950326813595813</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.08238241973365806</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.0986508367853601</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>572</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>393314</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>359328</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>431042</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.05418584235746003</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.04950379783797668</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.05938354879180969</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>3311</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>3470234</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>3451242</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>3483641</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.9831225498896781</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.9777422402798055</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.9869208933519537</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>4844</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>3395057</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>3360947</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>3421609</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.9104967318640419</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.9013491632146399</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.917617580266342</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>8155</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>6865290</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>6827562</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>6899276</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.94581415764254</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.9406164512081905</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.9504962021620234</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3373</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3529808</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3529808</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3529808</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>5354</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3728796</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3728796</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3728796</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>8727</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>7258604</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>7258604</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>7258604</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3614,14 +3144,14 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435_2011_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Habitat-trans_orig.xlsx
@@ -742,7 +742,7 @@
         <v>701369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>697044</v>
+        <v>696150</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>703469</v>
@@ -751,7 +751,7 @@
         <v>0.9970152678354139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9908671919513444</v>
+        <v>0.9895961126466539</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -763,19 +763,19 @@
         <v>675370</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>662357</v>
+        <v>662844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>683637</v>
+        <v>683477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9688970097794096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9502294106744994</v>
+        <v>0.9509273028130337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9807570165809286</v>
+        <v>0.9805272303456254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1303</v>
@@ -784,19 +784,19 @@
         <v>1376739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1363609</v>
+        <v>1365102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1385172</v>
+        <v>1385867</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9830205758214663</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.973645526898152</v>
+        <v>0.9747113319261851</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9890417676452162</v>
+        <v>0.9895384946330228</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6425</v>
+        <v>7319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002984732164586088</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009132808048655553</v>
+        <v>0.01040388735334598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -834,19 +834,19 @@
         <v>21680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13413</v>
+        <v>13573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34693</v>
+        <v>34206</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03110299022059034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01924298341907139</v>
+        <v>0.01947276965437474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04977058932550031</v>
+        <v>0.04907269718696638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -855,19 +855,19 @@
         <v>23780</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15347</v>
+        <v>14652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36910</v>
+        <v>35417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01697942417853372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01095823235478374</v>
+        <v>0.01046150536697724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02635447310184797</v>
+        <v>0.025288668073815</v>
       </c>
     </row>
     <row r="6">
@@ -959,7 +959,7 @@
         <v>1016887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1011972</v>
+        <v>1011577</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>1017947</v>
@@ -968,7 +968,7 @@
         <v>0.9989591766372429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9941304960234296</v>
+        <v>0.993741855158997</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -980,19 +980,19 @@
         <v>988542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>974605</v>
+        <v>972818</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1000200</v>
+        <v>999275</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9577188711423356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9442162501948321</v>
+        <v>0.9424849017104413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9690137089067475</v>
+        <v>0.9681169793236714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1835</v>
@@ -1001,19 +1001,19 @@
         <v>2005430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1989126</v>
+        <v>1990058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2018050</v>
+        <v>2017341</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9781958298456687</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9702432109070445</v>
+        <v>0.97069821218055</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9843517128669688</v>
+        <v>0.9840057837195056</v>
       </c>
     </row>
     <row r="8">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5975</v>
+        <v>6370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001040823362757139</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.005869503976571103</v>
+        <v>0.006258144841002978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1051,19 +1051,19 @@
         <v>43642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31984</v>
+        <v>32909</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>57579</v>
+        <v>59366</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04228112885766447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03098629109325253</v>
+        <v>0.03188302067632866</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05578374980516784</v>
+        <v>0.05751509828955862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1072,19 +1072,19 @@
         <v>44701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32081</v>
+        <v>32790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61005</v>
+        <v>60073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02180417015433137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01564828713303112</v>
+        <v>0.01599421628049411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02975678909295545</v>
+        <v>0.02930178781944981</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>753626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>747633</v>
+        <v>747787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>756585</v>
+        <v>756584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9947240289858238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9868135837937595</v>
+        <v>0.9870176819396737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.998629747622355</v>
+        <v>0.9986287477669062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>680</v>
@@ -1197,19 +1197,19 @@
         <v>749655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>736563</v>
+        <v>735800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>758676</v>
+        <v>758959</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9645910222609692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9477454284726424</v>
+        <v>0.9467634531833611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9761986164636545</v>
+        <v>0.9765625394740163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1365</v>
@@ -1218,19 +1218,19 @@
         <v>1503281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1489494</v>
+        <v>1489927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1512951</v>
+        <v>1513587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9794656041480676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9704825073676548</v>
+        <v>0.9707650821249896</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9857661389715275</v>
+        <v>0.9861807474925071</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>3997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9990</v>
+        <v>9836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005275971014176194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001370252377644967</v>
+        <v>0.001371252233093732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01318641620624042</v>
+        <v>0.01298231806032606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1268,19 +1268,19 @@
         <v>27519</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18498</v>
+        <v>18215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40611</v>
+        <v>41374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03540897773903084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02380138353634548</v>
+        <v>0.02343746052598377</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05225457152735742</v>
+        <v>0.05323654681663895</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1289,19 +1289,19 @@
         <v>31516</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21846</v>
+        <v>21210</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45303</v>
+        <v>44870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02053439585193241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01423386102847248</v>
+        <v>0.01381925250749298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02951749263234516</v>
+        <v>0.02923491787501043</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>943881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>938175</v>
+        <v>938045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>946767</v>
+        <v>946771</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.995929308585053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9899082527488494</v>
+        <v>0.9897715280582012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9989741746203938</v>
+        <v>0.9989786403997037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>971</v>
@@ -1414,19 +1414,19 @@
         <v>1017989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1004853</v>
+        <v>1003304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1028436</v>
+        <v>1028307</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.967761696741232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9552735177278355</v>
+        <v>0.9538006312215618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9776927229825055</v>
+        <v>0.9775701049413895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1877</v>
@@ -1435,19 +1435,19 @@
         <v>1961871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1947753</v>
+        <v>1947468</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1973032</v>
+        <v>1973108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9811118746144047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9740519318764811</v>
+        <v>0.9739091543747903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9866936044416025</v>
+        <v>0.9867317803398089</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9564</v>
+        <v>9694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004070691414946946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001025825379606131</v>
+        <v>0.001021359600296206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01009174725115062</v>
+        <v>0.01022847194179884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1485,19 +1485,19 @@
         <v>33912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23465</v>
+        <v>23594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47048</v>
+        <v>48597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03223830325876793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02230727701749464</v>
+        <v>0.02242989505861072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04472648227216446</v>
+        <v>0.04619936877843908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1506,19 +1506,19 @@
         <v>37769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26608</v>
+        <v>26532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51887</v>
+        <v>52172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01888812538559522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01330639555839752</v>
+        <v>0.01326821966019097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02594806812351889</v>
+        <v>0.02609084562520917</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>3415765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3407825</v>
+        <v>3407883</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3421668</v>
+        <v>3420897</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9967858086469044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9944687901281295</v>
+        <v>0.9944858884704536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9985084217263602</v>
+        <v>0.9982834219682057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3182</v>
@@ -1631,19 +1631,19 @@
         <v>3431556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3404836</v>
+        <v>3407194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3450444</v>
+        <v>3453927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9643783931072394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9568691022667432</v>
+        <v>0.9575318707150288</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9696864858975643</v>
+        <v>0.9706653923761921</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6380</v>
@@ -1652,19 +1652,19 @@
         <v>6847321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6823143</v>
+        <v>6820125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6870935</v>
+        <v>6868242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.980276982688427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9768155592986175</v>
+        <v>0.9763834999211203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9836576211365268</v>
+        <v>0.9832720198367872</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>11014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003214191353095675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -1702,19 +1702,19 @@
         <v>126753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0356216068927606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -1723,19 +1723,19 @@
         <v>137767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01972301731157295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>680766</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>673724</v>
+        <v>673594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>685515</v>
+        <v>685172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9856034253819825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9754074850287329</v>
+        <v>0.9752197606740531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9924794487492802</v>
+        <v>0.9919828201323851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1134</v>
@@ -2088,19 +2088,19 @@
         <v>673380</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>660800</v>
+        <v>660782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>685378</v>
+        <v>685401</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9190120711012042</v>
+        <v>0.919012071101204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9018426717214902</v>
+        <v>0.901817983451306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9353860777921701</v>
+        <v>0.9354180861612682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1851</v>
@@ -2109,19 +2109,19 @@
         <v>1354146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1338770</v>
+        <v>1338317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1366329</v>
+        <v>1365470</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9513250340220675</v>
+        <v>0.9513250340220676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9405233503179379</v>
+        <v>0.9402048102303543</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9598845541561211</v>
+        <v>0.9592804319066286</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>9944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5195</v>
+        <v>5538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16986</v>
+        <v>17116</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01439657461801755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007520551250719831</v>
+        <v>0.008017179867614991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02459251497126702</v>
+        <v>0.02478023932594778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -2159,19 +2159,19 @@
         <v>59342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47344</v>
+        <v>47321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71922</v>
+        <v>71940</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08098792889879582</v>
+        <v>0.0809879288987958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06461392220783006</v>
+        <v>0.0645819138387317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09815732827850998</v>
+        <v>0.09818201654869352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -2180,19 +2180,19 @@
         <v>69285</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57102</v>
+        <v>57961</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84661</v>
+        <v>85114</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04867496597793236</v>
+        <v>0.04867496597793237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.040115445843879</v>
+        <v>0.04071956809337123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05947664968206214</v>
+        <v>0.05979518976964569</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>1031687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1021449</v>
+        <v>1021287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1039050</v>
+        <v>1038229</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9835734512252029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9738130318369524</v>
+        <v>0.9736582872775446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9905936145338415</v>
+        <v>0.9898100269242226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1367</v>
@@ -2305,19 +2305,19 @@
         <v>975306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>958833</v>
+        <v>960004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>990364</v>
+        <v>989721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9116643444864332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8962662625586444</v>
+        <v>0.8973607125137263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9257401926559555</v>
+        <v>0.9251384871149066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2313</v>
@@ -2326,19 +2326,19 @@
         <v>2006993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1987977</v>
+        <v>1987331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2023635</v>
+        <v>2022630</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9472643789689374</v>
+        <v>0.9472643789689373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9382894032673674</v>
+        <v>0.9379842969394627</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.955119131106173</v>
+        <v>0.9546451013793295</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>17230</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9867</v>
+        <v>10688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27468</v>
+        <v>27630</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01642654877479727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009406385466158337</v>
+        <v>0.01018997307577753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02618696816304745</v>
+        <v>0.02634171272245562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -2376,19 +2376,19 @@
         <v>94502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79444</v>
+        <v>80087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110975</v>
+        <v>109804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08833565551356676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07425980734404457</v>
+        <v>0.07486151288509328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1037337374413555</v>
+        <v>0.1026392874862735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -2397,19 +2397,19 @@
         <v>111732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95090</v>
+        <v>96095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130748</v>
+        <v>131394</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05273562103106259</v>
+        <v>0.05273562103106257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04488086889382713</v>
+        <v>0.04535489862067055</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0617105967326327</v>
+        <v>0.06201570306053697</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>793829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>786556</v>
+        <v>786146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>797939</v>
+        <v>798073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9907789578274189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9817019390003378</v>
+        <v>0.9811903776819658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9959093374249135</v>
+        <v>0.9960760067507096</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>946</v>
@@ -2522,19 +2522,19 @@
         <v>738568</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>722997</v>
+        <v>723445</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>753120</v>
+        <v>752115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9116495072907481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8924292187682293</v>
+        <v>0.8929825353951512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.929611475570292</v>
+        <v>0.9283703453193646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1613</v>
@@ -2543,19 +2543,19 @@
         <v>1532397</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1515864</v>
+        <v>1515776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1546902</v>
+        <v>1546857</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9509950295328247</v>
+        <v>0.9509950295328246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9407345238296496</v>
+        <v>0.9406801202369693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9599968564414132</v>
+        <v>0.9599688189734561</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>7388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3278</v>
+        <v>3144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14661</v>
+        <v>15071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009221042172581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004090662575086474</v>
+        <v>0.003923993249290286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01829806099966213</v>
+        <v>0.01880962231803414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -2593,19 +2593,19 @@
         <v>71577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57025</v>
+        <v>58030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87148</v>
+        <v>86700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0883504927092519</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07038852442970821</v>
+        <v>0.07162965468063535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1075707812317708</v>
+        <v>0.1070174646048488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -2614,19 +2614,19 @@
         <v>78965</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64460</v>
+        <v>64505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95498</v>
+        <v>95586</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0490049704671754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04000314355858674</v>
+        <v>0.04003118102654383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05926547617035035</v>
+        <v>0.05931987976303067</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>963952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>950259</v>
+        <v>950033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>973331</v>
+        <v>972573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9747087298751607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.960862722847402</v>
+        <v>0.9606343325441767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9841929872796483</v>
+        <v>0.9834262968469288</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1397</v>
@@ -2739,19 +2739,19 @@
         <v>1007802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>989519</v>
+        <v>989337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1023006</v>
+        <v>1024423</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9029505876286562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8865696585136909</v>
+        <v>0.8864064647696215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9165727022156583</v>
+        <v>0.917842491409761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2378</v>
@@ -2760,19 +2760,19 @@
         <v>1971755</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1949895</v>
+        <v>1950590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1991498</v>
+        <v>1991283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9366623990382069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9262782082419577</v>
+        <v>0.9266082815251386</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9460412052610516</v>
+        <v>0.9459392036104169</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>25012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15633</v>
+        <v>16391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38705</v>
+        <v>38931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0252912701248394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01580701272035167</v>
+        <v>0.01657370315307147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03913727715259805</v>
+        <v>0.03936566745582424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -2810,19 +2810,19 @@
         <v>108319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93115</v>
+        <v>91698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126602</v>
+        <v>126784</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09704941237134397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08342729778434163</v>
+        <v>0.08215750859023901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1134303414863091</v>
+        <v>0.1135935352303785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>185</v>
@@ -2831,19 +2831,19 @@
         <v>133331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113588</v>
+        <v>113803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>155191</v>
+        <v>154496</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06333760096179317</v>
+        <v>0.06333760096179318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05395879473894848</v>
+        <v>0.05406079638958326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07372179175804244</v>
+        <v>0.07339171847486166</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>3470234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3451242</v>
+        <v>3451386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3483641</v>
+        <v>3484197</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9831225498896781</v>
+        <v>0.9831225498896778</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9777422402798055</v>
+        <v>0.9777828645209837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9869208933519537</v>
+        <v>0.9870782885925955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4844</v>
@@ -2956,19 +2956,19 @@
         <v>3395057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3360947</v>
+        <v>3363986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3421609</v>
+        <v>3422988</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9104967318640419</v>
+        <v>0.9104967318640418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9013491632146399</v>
+        <v>0.9021641587499494</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.917617580266342</v>
+        <v>0.9179875042417182</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8155</v>
@@ -2977,19 +2977,19 @@
         <v>6865290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6827562</v>
+        <v>6829127</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6899276</v>
+        <v>6898057</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.94581415764254</v>
+        <v>0.9458141576425401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9406164512081905</v>
+        <v>0.9408319586964137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9504962021620234</v>
+        <v>0.9503282914556538</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>59574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01687745011032194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -3027,19 +3027,19 @@
         <v>333739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08950326813595813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>572</v>
@@ -3048,19 +3048,19 @@
         <v>393314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="18">
